--- a/data/trans_dic/P21D_6_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21D_6_R-Clase-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01131012178400628</v>
+        <v>0.01101956981811472</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006422743861513668</v>
+        <v>0.005511651270344785</v>
       </c>
     </row>
     <row r="7">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001325521345050243</v>
+        <v>0.001336205040749952</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0266164865832843</v>
+        <v>0.02584286623225791</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01379827705490809</v>
+        <v>0.01475719061924567</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01400405498723497</v>
+        <v>0.01484778373615778</v>
       </c>
     </row>
     <row r="10">
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0.01685634624845204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.01267405322191648</v>
+        <v>0.01267405322191647</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003617032345196245</v>
+        <v>0.002260442891661877</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008621770434472154</v>
+        <v>0.00873828224406268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006957121839766395</v>
+        <v>0.006331019482391593</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02696949798134178</v>
+        <v>0.02475160833137958</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03027893182110536</v>
+        <v>0.03109237467129311</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0215478615885314</v>
+        <v>0.02140884904018412</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.004784584935818536</v>
+        <v>0.004784584935818537</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02392088875516218</v>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01427742324935002</v>
+        <v>0.01413693075030083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009670699137506357</v>
+        <v>0.009886742579030567</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02464275245388364</v>
+        <v>0.02894004042535729</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03833331656698188</v>
+        <v>0.04033777043176986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02600458562399851</v>
+        <v>0.02676553101824379</v>
       </c>
     </row>
     <row r="19">
@@ -849,10 +849,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.001715357038289248</v>
+        <v>0.001716595658512706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.001284021055353478</v>
+        <v>0.001282748379265618</v>
       </c>
     </row>
     <row r="21">
@@ -864,10 +864,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01643168783643078</v>
+        <v>0.01755047029051796</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01262092698655596</v>
+        <v>0.01233347474461756</v>
       </c>
     </row>
     <row r="22">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.005665651518477003</v>
+        <v>0.005665651518477004</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.01168515439123087</v>
+        <v>0.01168515439123086</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.00879345630373593</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002621812557817344</v>
+        <v>0.002687915487913266</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008141343889836509</v>
+        <v>0.008447658814493027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006272662491998593</v>
+        <v>0.006142267138714761</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01146067424801056</v>
+        <v>0.01106582087136935</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01638958131370433</v>
+        <v>0.01647422561593704</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0123158303406205</v>
+        <v>0.01219560660640826</v>
       </c>
     </row>
     <row r="25">
@@ -1082,10 +1082,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>2656</v>
+        <v>2588</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3078</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="8">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5242</v>
+        <v>5089</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>2713</v>
+        <v>2902</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5511</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="12">
@@ -1221,11 +1221,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="16">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1848</v>
+        <v>1155</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3334</v>
+        <v>3379</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6244</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="19">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13777</v>
+        <v>12644</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11708</v>
+        <v>12022</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19339</v>
+        <v>19214</v>
       </c>
     </row>
     <row r="20">
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5538</v>
+        <v>5483</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6314</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="23">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6530</v>
+        <v>7669</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14869</v>
+        <v>15646</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16978</v>
+        <v>17475</v>
       </c>
     </row>
     <row r="24">
@@ -1419,10 +1419,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27">
@@ -1434,10 +1434,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5837</v>
+        <v>6234</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5965</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="28">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3994</v>
+        <v>4095</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13416</v>
+        <v>13920</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>19892</v>
+        <v>19479</v>
       </c>
     </row>
     <row r="31">
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17460</v>
+        <v>16858</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>27007</v>
+        <v>27147</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39057</v>
+        <v>38676</v>
       </c>
     </row>
     <row r="32">
